--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
@@ -396,15 +396,15 @@
     <t>HumanName.text</t>
   </si>
   <si>
-    <t>Text representation of the full name　名前全体のテキスト表現。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
+    <t>Text representation of the full name　名前全体のテキスト表現。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.
-アプリケーションUIなどで、表示する名前全体を指定する。名前の特定の部分の代わり、または特定の部分と同じとして使われることがある。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
+アプリケーションUIなどで、表示する名前全体を指定する。名前の特定の部分の代わり、または特定の部分と同じとして使われることがある。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.
-テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
+テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>A renderable, unencoded form.</t>
@@ -864,7 +864,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.34375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
@@ -457,7 +457,7 @@
 名前の名の部分。</t>
   </si>
   <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to practical limitations.  This element is not called "first name" since given names do not always come first.
 イニシャルのみが記録されている場合は、フルネームの部分の代わりに使用できる。イニシャルは複数の名前に分けることができるが、多くの場合、実用的な制限のためではない。名が常に最初に来るとは限らないため、この要素は「first name」とは呼ばない。</t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="167">
   <si>
     <t>Property</t>
   </si>
@@ -253,7 +253,7 @@
   </si>
   <si>
     <t>A human's name with the ability to identify parts and usage.
-識別のための人の名前情報、</t>
+識別のための人の名前情報</t>
   </si>
   <si>
     <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
@@ -302,14 +302,21 @@
     <t>HumanName.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -1230,11 +1237,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>77</v>
@@ -1249,15 +1256,17 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>75</v>
@@ -1294,19 +1303,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1318,13 +1327,13 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>75</v>
@@ -1335,18 +1344,18 @@
         <v>93</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F5" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
       </c>
@@ -1357,16 +1366,16 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1416,7 +1425,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -1428,13 +1437,13 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>75</v>
@@ -1442,7 +1451,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1459,25 +1468,25 @@
         <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O6" t="s" s="2">
         <v>75</v>
@@ -1502,13 +1511,13 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>75</v>
@@ -1526,7 +1535,7 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -1541,18 +1550,18 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1572,22 +1581,22 @@
         <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O7" t="s" s="2">
         <v>75</v>
@@ -1636,7 +1645,7 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1651,10 +1660,10 @@
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>75</v>
@@ -1662,11 +1671,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1682,19 +1691,19 @@
         <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1744,7 +1753,7 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -1759,22 +1768,22 @@
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1790,19 +1799,19 @@
         <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1852,7 +1861,7 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -1867,18 +1876,18 @@
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1898,19 +1907,19 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1960,7 +1969,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1975,18 +1984,18 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2006,19 +2015,19 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2068,7 +2077,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2083,10 +2092,10 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>75</v>
@@ -2094,7 +2103,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2114,22 +2123,22 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
@@ -2178,7 +2187,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2193,13 +2202,13 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはHumanName DataTypeに対して、患者のデータを送受信するための基礎となる制約と拡張を定めたものである。</t>
+    <t>このデータタイプはHumanName DataTypeに対して、患者データを送受信するための基礎となる制約と拡張を定めたものである。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -457,7 +457,7 @@
 middle name</t>
   </si>
   <si>
-    <t>Given names (not always 'first'). Includes middle names　名前の名の部分で、ミドルネームを含む。</t>
+    <t>Given names (not always 'first'). Includes middle names　名前の名の部分で、ミドルネームを含む</t>
   </si>
   <si>
     <t>Given name.
@@ -531,7 +531,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
 Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。
 Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
   </si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="168">
   <si>
     <t>Property</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -264,131 +267,131 @@
 </t>
   </si>
   <si>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
+  </si>
+  <si>
+    <t>HumanName.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>HumanName.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>nameRepresentationUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-EN-representation}
+</t>
+  </si>
+  <si>
+    <t>ABC | IDE | SYL</t>
+  </si>
+  <si>
+    <t>Name Representation.
+名前の表現方法</t>
+  </si>
+  <si>
+    <t>The transcription of the name - how it is represented (for e.g. Japanese names).
+名前の文字起こし-表現方法（日本の名前など）。</t>
+  </si>
+  <si>
+    <t>ENXP.use</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.
+この名前の使用目的</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.
+アプリケーションは、名前が明示的に一時的な名前（temp ）あるいは以前の名前だ（old ）と設定されていない場合には、現時点での名前だとみなしてよい。</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.
+一連の名前の中から、特定の使用状況に適した名前を選択できるようになる。</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
-  </si>
-  <si>
-    <t>HumanName.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>HumanName.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>nameRepresentationUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-EN-representation}
-</t>
-  </si>
-  <si>
-    <t>ABC | IDE | SYL</t>
-  </si>
-  <si>
-    <t>Name Representation.
-名前の表現方法</t>
-  </si>
-  <si>
-    <t>The transcription of the name - how it is represented (for e.g. Japanese names).
-名前の文字起こし-表現方法（日本の名前など）。</t>
-  </si>
-  <si>
-    <t>ENXP.use</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.
-この名前の使用目的</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.
-アプリケーションは、名前が明示的に一時的な名前（temp ）あるいは以前の名前だ（old ）と設定されていない場合には、現時点での名前だとみなしてよい。</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.
-一連の名前の中から、特定の使用状況に適した名前を選択できるようになる。</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
   </si>
   <si>
     <t>XPN.7, but often indicated by which field contains the name</t>
@@ -794,55 +797,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -903,217 +906,217 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>83</v>
@@ -1131,23 +1134,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>88</v>
@@ -1161,74 +1164,74 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -1241,19 +1244,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>95</v>
@@ -1269,38 +1272,38 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>99</v>
@@ -1309,7 +1312,7 @@
         <v>100</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>101</v>
@@ -1318,25 +1321,25 @@
         <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1347,23 +1350,23 @@
         <v>104</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>105</v>
@@ -1379,74 +1382,74 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1455,17 +1458,17 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>111</v>
@@ -1489,26 +1492,26 @@
         <v>116</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>117</v>
@@ -1520,65 +1523,65 @@
         <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>111</v>
@@ -1587,108 +1590,108 @@
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>111</v>
@@ -1697,106 +1700,106 @@
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>111</v>
@@ -1805,106 +1808,106 @@
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>111</v>
@@ -1913,106 +1916,106 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>111</v>
@@ -2021,194 +2024,194 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>111</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-humanname.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
